--- a/new_fichier.xlsx
+++ b/new_fichier.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,643 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:15.683199</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J2" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:40.807171</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J3" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:41.074121</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J4" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:41.297152</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J5" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:41.511652</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J6" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:41.745780</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J7" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:41.953975</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J8" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:42.185952</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J9" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:42.415846</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J10" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:43.250281</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J11" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:43.950933</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J12" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:44.604674</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J13" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:37:45.218706</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Temperature four  C°</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>T 1610</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>T 2624</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>53995.235</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TG  mg</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>T 1435</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>T 2932</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>10110.085</v>
+      </c>
+      <c r="J14" t="n">
+        <v>64105.32</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7144.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/new_fichier.xlsx
+++ b/new_fichier.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-03-30T16:37:15.683199</t>
+          <t>2021-03-30T18:55:18.069230</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -491,46 +491,40 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T 1610</t>
+          <t>T 1163</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T 2624</t>
+          <t>T 2217</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53995.235</v>
+        <v>56320.21</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TG  mg</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>T 1435</t>
+          <t>T 1182</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>T 2932</t>
+          <t>T 1816</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J2" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7144.96</v>
+        <v>1658.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-03-30T16:37:40.807171</t>
+          <t>2021-03-30T18:55:19.249276</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,46 +534,40 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T 1610</t>
+          <t>T 1163</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T 2624</t>
+          <t>T 2217</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53995.235</v>
+        <v>56320.21</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TG  mg</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>T 1435</t>
+          <t>T 1182</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>T 2932</t>
+          <t>T 1816</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J3" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7144.96</v>
+        <v>1658.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-03-30T16:37:41.074121</t>
+          <t>2021-03-30T18:55:20.060456</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -589,46 +577,40 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>T 1610</t>
+          <t>T 1163</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T 2624</t>
+          <t>T 2217</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53995.235</v>
+        <v>56320.21</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TG  mg</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>T 1435</t>
+          <t>T 1182</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>T 2932</t>
+          <t>T 1816</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J4" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7144.96</v>
+        <v>1658.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-03-30T16:37:41.297152</t>
+          <t>2021-03-30T18:55:20.764098</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -638,46 +620,40 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>T 1610</t>
+          <t>T 1163</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T 2624</t>
+          <t>T 2217</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53995.235</v>
+        <v>56320.21</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TG  mg</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>T 1435</t>
+          <t>T 1182</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>T 2932</t>
+          <t>T 1816</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J5" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7144.96</v>
+        <v>1658.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-03-30T16:37:41.511652</t>
+          <t>2021-03-30T18:55:21.555639</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -687,46 +663,40 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>T 1610</t>
+          <t>T 1163</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T 2624</t>
+          <t>T 2217</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53995.235</v>
+        <v>56320.21</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TG  mg</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>T 1435</t>
+          <t>T 1182</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>T 2932</t>
+          <t>T 1816</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J6" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7144.96</v>
+        <v>1658.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-03-30T16:37:41.745780</t>
+          <t>2021-03-30T18:55:22.084758</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -736,46 +706,40 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>T 1610</t>
+          <t>T 1163</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T 2624</t>
+          <t>T 2217</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53995.235</v>
+        <v>56320.21</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TG  mg</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>T 1435</t>
+          <t>T 1182</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>T 2932</t>
+          <t>T 1816</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J7" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7144.96</v>
+        <v>1658.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-03-30T16:37:41.953975</t>
+          <t>2021-03-30T18:55:22.333740</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -785,46 +749,40 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>T 1610</t>
+          <t>T 1163</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T 2624</t>
+          <t>T 2217</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53995.235</v>
+        <v>56320.21</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TG  mg</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>T 1435</t>
+          <t>T 1182</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>T 2932</t>
+          <t>T 1816</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J8" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7144.96</v>
+        <v>1658.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-03-30T16:37:42.185952</t>
+          <t>2021-03-30T18:55:22.563618</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -834,46 +792,40 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>T 1610</t>
+          <t>T 1163</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T 2624</t>
+          <t>T 2217</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53995.235</v>
+        <v>56320.21</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TG  mg</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>T 1435</t>
+          <t>T 1182</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>T 2932</t>
+          <t>T 1816</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J9" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7144.96</v>
+        <v>1658.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-03-30T16:37:42.415846</t>
+          <t>2021-03-30T18:55:22.806884</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -883,236 +835,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>T 1610</t>
+          <t>T 1163</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T 2624</t>
+          <t>T 2217</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53995.235</v>
+        <v>56320.21</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TG  mg</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>T 1435</t>
+          <t>T 1182</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>T 2932</t>
+          <t>T 1816</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J10" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7144.96</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2021-03-30T16:37:43.250281</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Temperature four  C°</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>T 1610</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>T 2624</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>53995.235</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>TG  mg</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>T 1435</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>T 2932</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J11" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7144.96</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2021-03-30T16:37:43.950933</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Temperature four  C°</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>T 1610</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>T 2624</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>53995.235</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>TG  mg</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>T 1435</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>T 2932</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J12" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7144.96</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2021-03-30T16:37:44.604674</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Temperature four  C°</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>T 1610</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>T 2624</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>53995.235</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>TG  mg</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>T 1435</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>T 2932</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J13" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K13" t="n">
-        <v>7144.96</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2021-03-30T16:37:45.218706</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Temperature four  C°</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>T 1610</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>T 2624</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>53995.235</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>TG  mg</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>T 1435</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>T 2932</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>10110.085</v>
-      </c>
-      <c r="J14" t="n">
-        <v>64105.32</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7144.96</v>
+        <v>1658.1</v>
       </c>
     </row>
   </sheetData>

--- a/new_fichier.xlsx
+++ b/new_fichier.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,395 +474,208 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Interection</t>
+          <t>Intersection</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-03-30T18:55:18.069230</t>
+          <t>2021-03-31T18:44:36.842584</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Temperature four  C°</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T 1163</t>
+          <t>T 659</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T 2217</t>
+          <t>T 1321</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>56320.21</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>HeatFlow  µv</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>T 1182</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>T 1816</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1658.1</v>
+        <v>1209.715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-03-30T18:55:19.249276</t>
+          <t>2021-03-31T18:45:50.410588</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Temperature four  C°</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T 1163</t>
+          <t>T 1325</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T 2217</t>
+          <t>T 2653</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>56320.21</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>HeatFlow  µv</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>T 1182</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>T 1816</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1658.1</v>
+        <v>2162.825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-03-30T18:55:20.060456</t>
+          <t>2021-03-31T18:45:55.577880</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Temperature four  C°</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>T 1163</t>
+          <t>T 1325</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T 2217</t>
+          <t>T 2653</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>56320.21</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>HeatFlow  µv</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>T 1182</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>T 1816</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1658.1</v>
+        <v>2162.825</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-03-30T18:55:20.764098</t>
+          <t>2021-03-31T18:45:56.834664</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Temperature four  C°</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>T 1163</t>
+          <t>T 1325</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T 2217</t>
+          <t>T 2653</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>56320.21</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>HeatFlow  µv</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>T 1182</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>T 1816</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1658.1</v>
+        <v>2162.825</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-03-30T18:55:21.555639</t>
+          <t>2021-03-31T18:45:58.124378</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Temperature four  C°</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>T 1163</t>
+          <t>T 1325</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T 2217</t>
+          <t>T 2653</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>56320.21</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HeatFlow  µv</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>T 1182</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>T 1816</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1658.1</v>
+        <v>2162.825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-03-30T18:55:22.084758</t>
+          <t>2021-03-31T18:45:58.348096</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Temperature four  C°</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>T 1163</t>
+          <t>T 1325</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T 2217</t>
+          <t>T 2653</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>56320.21</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>HeatFlow  µv</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>T 1182</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>T 1816</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1658.1</v>
+        <v>2162.825</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-03-30T18:55:22.333740</t>
+          <t>2021-03-31T18:45:58.586540</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Temperature four  C°</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>T 1163</t>
+          <t>T 1325</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T 2217</t>
+          <t>T 2653</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>56320.21</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>HeatFlow  µv</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>T 1182</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>T 1816</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1658.1</v>
+        <v>2162.825</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-03-30T18:55:22.563618</t>
+          <t>2021-03-31T18:45:58.803018</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Temperature four  C°</t>
+          <t>HeatFlow  µv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>T 1163</t>
+          <t>T 1325</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T 2217</t>
+          <t>T 2653</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>56320.21</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>HeatFlow  µv</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>T 1182</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>T 1816</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1658.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2021-03-30T18:55:22.806884</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Temperature four  C°</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>T 1163</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>T 2217</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>56320.21</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>HeatFlow  µv</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>T 1182</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>T 1816</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1658.1</v>
+        <v>2162.825</v>
       </c>
     </row>
   </sheetData>

--- a/new_fichier.xlsx
+++ b/new_fichier.xlsx
@@ -1,37 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-04-01T19:46:58.557764</t>
+  </si>
+  <si>
+    <t>2021-04-01T19:47:00.225003</t>
+  </si>
+  <si>
+    <t>Firstchoosenvalue</t>
+  </si>
+  <si>
+    <t>Temperature four  C°</t>
+  </si>
+  <si>
+    <t>leftfirstIntegralVal</t>
+  </si>
+  <si>
+    <t>leftSecondIntegralVal</t>
+  </si>
+  <si>
+    <t>leftIntegral</t>
+  </si>
+  <si>
+    <t>Secondchoosenvalue</t>
+  </si>
+  <si>
+    <t>rightFirstIntegralVal</t>
+  </si>
+  <si>
+    <t>rightSecondIntegralVal</t>
+  </si>
+  <si>
+    <t>rightIntegral</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Intersection</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +96,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,89 +412,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:12">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-04-01T16:14:30.352029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Temperature four  C°</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>T 787</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>T 1421</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>32523.395</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/new_fichier.xlsx
+++ b/new_fichier.xlsx
@@ -14,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2021-04-01T19:46:58.557764</t>
-  </si>
-  <si>
-    <t>2021-04-01T19:47:00.225003</t>
-  </si>
-  <si>
     <t>Firstchoosenvalue</t>
-  </si>
-  <si>
-    <t>Temperature four  C°</t>
   </si>
   <si>
     <t>leftfirstIntegralVal</t>
@@ -413,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,56 +453,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/new_fichier.xlsx
+++ b/new_fichier.xlsx
@@ -14,39 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Firstchoosenvalue</t>
-  </si>
-  <si>
-    <t>leftfirstIntegralVal</t>
-  </si>
-  <si>
-    <t>leftSecondIntegralVal</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>2021-04-06T11:54:55.891462</t>
+  </si>
+  <si>
+    <t>firstChoosenValue</t>
+  </si>
+  <si>
+    <t>Temperature four C°</t>
+  </si>
+  <si>
+    <t>leftIntegralFirst</t>
+  </si>
+  <si>
+    <t>T 1122</t>
+  </si>
+  <si>
+    <t>leftIntegralSecond</t>
+  </si>
+  <si>
+    <t>T 1717</t>
   </si>
   <si>
     <t>leftIntegral</t>
   </si>
   <si>
-    <t>Secondchoosenvalue</t>
-  </si>
-  <si>
-    <t>rightFirstIntegralVal</t>
-  </si>
-  <si>
-    <t>rightSecondIntegralVal</t>
+    <t>secondChoosenValue</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>rightIntegralFirst</t>
+  </si>
+  <si>
+    <t>rightIntegralSecond</t>
   </si>
   <si>
     <t>rightIntegral</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>Intersection</t>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>intersection</t>
   </si>
 </sst>
 </file>
@@ -404,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,33 +468,71 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="F3">
+        <v>31168.955</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/new_fichier.xlsx
+++ b/new_fichier.xlsx
@@ -14,39 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>2021-04-06T11:54:55.891462</t>
-  </si>
-  <si>
     <t>firstChoosenValue</t>
   </si>
   <si>
-    <t>Temperature four C°</t>
-  </si>
-  <si>
     <t>leftIntegralFirst</t>
   </si>
   <si>
-    <t>T 1122</t>
-  </si>
-  <si>
     <t>leftIntegralSecond</t>
   </si>
   <si>
-    <t>T 1717</t>
-  </si>
-  <si>
     <t>leftIntegral</t>
   </si>
   <si>
     <t>secondChoosenValue</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>rightIntegralFirst</t>
@@ -419,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,71 +453,33 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>31168.955</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
         <v>10</v>
       </c>
     </row>
